--- a/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4322EE52-3B46-404B-B4AA-657DBB144DEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NAKD" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>NAKD</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,141 +654,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43496</v>
+      </c>
+      <c r="F7" s="2">
         <v>43131</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>42766</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>89000</v>
+        <v>55900</v>
       </c>
       <c r="E8" s="3">
-        <v>65200</v>
+        <v>69500</v>
       </c>
       <c r="F8" s="3">
-        <v>102300</v>
+        <v>81600</v>
       </c>
       <c r="G8" s="3">
-        <v>94100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>59800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>93700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>86200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>59300</v>
+        <v>34900</v>
       </c>
       <c r="E9" s="3">
-        <v>38700</v>
+        <v>46200</v>
       </c>
       <c r="F9" s="3">
-        <v>56600</v>
+        <v>54300</v>
       </c>
       <c r="G9" s="3">
-        <v>53500</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>35500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>51800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>49100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29800</v>
+        <v>21000</v>
       </c>
       <c r="E10" s="3">
-        <v>26500</v>
+        <v>23200</v>
       </c>
       <c r="F10" s="3">
-        <v>45700</v>
+        <v>27300</v>
       </c>
       <c r="G10" s="3">
-        <v>40500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>41900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>37100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,8 +824,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -861,9 +852,15 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,36 +885,48 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>14600</v>
       </c>
       <c r="E14" s="3">
-        <v>1100</v>
+        <v>11300</v>
       </c>
       <c r="F14" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="G14" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -942,9 +951,15 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -953,62 +968,76 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>114400</v>
+        <v>89100</v>
       </c>
       <c r="E17" s="3">
-        <v>75500</v>
+        <v>100800</v>
       </c>
       <c r="F17" s="3">
-        <v>112600</v>
+        <v>104800</v>
       </c>
       <c r="G17" s="3">
-        <v>103800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>69100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>103200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>95100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25400</v>
+        <v>-33200</v>
       </c>
       <c r="E18" s="3">
-        <v>-10200</v>
+        <v>-31300</v>
       </c>
       <c r="F18" s="3">
-        <v>-10300</v>
+        <v>-23300</v>
       </c>
       <c r="G18" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,8 +1049,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1037,45 +1068,57 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-9000</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-7900</v>
+        <v>-21400</v>
       </c>
       <c r="G21" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-8200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-5400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1100,63 +1143,81 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25400</v>
+        <v>-33200</v>
       </c>
       <c r="E23" s="3">
-        <v>-10200</v>
+        <v>-31300</v>
       </c>
       <c r="F23" s="3">
-        <v>-10300</v>
+        <v>-23300</v>
       </c>
       <c r="G23" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-8900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>-800</v>
       </c>
       <c r="F24" s="3">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-800</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,63 +1242,81 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25500</v>
+        <v>-33700</v>
       </c>
       <c r="E26" s="3">
-        <v>-10800</v>
+        <v>-30600</v>
       </c>
       <c r="F26" s="3">
-        <v>-14100</v>
+        <v>-23300</v>
       </c>
       <c r="G26" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-9900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-8100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25500</v>
+        <v>-33700</v>
       </c>
       <c r="E27" s="3">
-        <v>-10800</v>
+        <v>-30600</v>
       </c>
       <c r="F27" s="3">
-        <v>-14100</v>
+        <v>-23300</v>
       </c>
       <c r="G27" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-9900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-8100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1262,9 +1341,15 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,9 +1374,15 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1316,9 +1407,15 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1343,9 +1440,15 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1361,45 +1464,57 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25500</v>
+        <v>-33700</v>
       </c>
       <c r="E33" s="3">
-        <v>-10800</v>
+        <v>-30600</v>
       </c>
       <c r="F33" s="3">
-        <v>-14100</v>
+        <v>-23300</v>
       </c>
       <c r="G33" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-9900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-8100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1424,68 +1539,86 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25500</v>
+        <v>-33700</v>
       </c>
       <c r="E35" s="3">
-        <v>-10800</v>
+        <v>-30600</v>
       </c>
       <c r="F35" s="3">
-        <v>-14100</v>
+        <v>-23300</v>
       </c>
       <c r="G35" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-9900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-8100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43496</v>
+      </c>
+      <c r="F38" s="2">
         <v>43131</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>42766</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1630,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1510,35 +1645,43 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7300</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="3">
-        <v>2800</v>
+        <v>6700</v>
       </c>
       <c r="G41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1563,117 +1706,147 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19100</v>
+        <v>3800</v>
       </c>
       <c r="E43" s="3">
-        <v>27800</v>
+        <v>6400</v>
       </c>
       <c r="F43" s="3">
-        <v>22100</v>
+        <v>17500</v>
       </c>
       <c r="G43" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>25400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>12400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21300</v>
+        <v>14600</v>
       </c>
       <c r="E44" s="3">
-        <v>25700</v>
+        <v>13100</v>
       </c>
       <c r="F44" s="3">
-        <v>25700</v>
+        <v>19500</v>
       </c>
       <c r="G44" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>23500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>28800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47700</v>
+        <v>20700</v>
       </c>
       <c r="E46" s="3">
-        <v>55300</v>
+        <v>20700</v>
       </c>
       <c r="F46" s="3">
-        <v>50700</v>
+        <v>43600</v>
       </c>
       <c r="G46" s="3">
-        <v>47400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>50600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>46400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>43400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1698,63 +1871,81 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>16600</v>
       </c>
       <c r="E48" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="F48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8800</v>
+        <v>17500</v>
       </c>
       <c r="E49" s="3">
-        <v>9900</v>
+        <v>23500</v>
       </c>
       <c r="F49" s="3">
-        <v>9900</v>
+        <v>8100</v>
       </c>
       <c r="G49" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>9100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>10800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1779,9 +1970,15 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1806,9 +2003,15 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1816,26 +2019,32 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1860,36 +2069,48 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59700</v>
+        <v>54900</v>
       </c>
       <c r="E54" s="3">
-        <v>68600</v>
+        <v>46900</v>
       </c>
       <c r="F54" s="3">
-        <v>64800</v>
+        <v>54600</v>
       </c>
       <c r="G54" s="3">
-        <v>67600</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>62800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>59300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>61900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1901,8 +2122,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,133 +2137,159 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15500</v>
+        <v>13900</v>
       </c>
       <c r="E57" s="3">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="F57" s="3">
-        <v>13500</v>
+        <v>14200</v>
       </c>
       <c r="G57" s="3">
-        <v>18600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>17000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35300</v>
+        <v>16900</v>
       </c>
       <c r="E58" s="3">
-        <v>46700</v>
+        <v>13000</v>
       </c>
       <c r="F58" s="3">
-        <v>41700</v>
+        <v>32300</v>
       </c>
       <c r="G58" s="3">
-        <v>38100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>42800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>38200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>34900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10900</v>
+        <v>3600</v>
       </c>
       <c r="E59" s="3">
-        <v>12200</v>
+        <v>10200</v>
       </c>
       <c r="F59" s="3">
-        <v>9000</v>
+        <v>9900</v>
       </c>
       <c r="G59" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>6400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>61700</v>
+        <v>34500</v>
       </c>
       <c r="E60" s="3">
-        <v>73200</v>
+        <v>38900</v>
       </c>
       <c r="F60" s="3">
-        <v>64200</v>
+        <v>56500</v>
       </c>
       <c r="G60" s="3">
-        <v>63700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>67000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>58800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>58300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>23200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2048,36 +2297,48 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
         <v>1500</v>
       </c>
       <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2102,9 +2363,15 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2129,9 +2396,15 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2156,36 +2429,48 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63600</v>
+        <v>58800</v>
       </c>
       <c r="E66" s="3">
-        <v>74700</v>
+        <v>40400</v>
       </c>
       <c r="F66" s="3">
-        <v>76900</v>
+        <v>58200</v>
       </c>
       <c r="G66" s="3">
-        <v>65700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>68400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>70400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>60200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2197,8 +2482,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2223,9 +2510,15 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2250,9 +2543,15 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2277,9 +2576,15 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2304,36 +2609,48 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-50400</v>
+        <v>-109400</v>
       </c>
       <c r="E72" s="3">
-        <v>-25100</v>
+        <v>-76700</v>
       </c>
       <c r="F72" s="3">
-        <v>-14200</v>
+        <v>-46200</v>
       </c>
       <c r="G72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2358,9 +2675,15 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2385,9 +2708,15 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2412,9 +2741,15 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2422,26 +2757,32 @@
         <v>-3900</v>
       </c>
       <c r="E76" s="3">
-        <v>-6100</v>
+        <v>6500</v>
       </c>
       <c r="F76" s="3">
-        <v>-12100</v>
+        <v>-3500</v>
       </c>
       <c r="G76" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-5600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2466,68 +2807,86 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43496</v>
+      </c>
+      <c r="F80" s="2">
         <v>43131</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>42766</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25500</v>
+        <v>-33700</v>
       </c>
       <c r="E81" s="3">
-        <v>-10800</v>
+        <v>-30600</v>
       </c>
       <c r="F81" s="3">
-        <v>-14100</v>
+        <v>-23300</v>
       </c>
       <c r="G81" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-9900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-8100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2539,35 +2898,43 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2592,9 +2959,15 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2619,9 +2992,15 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2646,9 +3025,15 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2673,9 +3058,15 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2700,36 +3091,48 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2800</v>
+        <v>-12300</v>
       </c>
       <c r="E89" s="3">
-        <v>-9200</v>
+        <v>-5900</v>
       </c>
       <c r="F89" s="3">
-        <v>-3400</v>
+        <v>-2600</v>
       </c>
       <c r="G89" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-8400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-10700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2741,35 +3144,43 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-1600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2794,9 +3205,15 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2821,36 +3238,48 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1600</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2862,8 +3291,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2888,9 +3319,15 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2915,9 +3352,15 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2942,9 +3385,15 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2969,36 +3418,48 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9800</v>
+        <v>13700</v>
       </c>
       <c r="E100" s="3">
-        <v>8900</v>
+        <v>1300</v>
       </c>
       <c r="F100" s="3">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="G100" s="3">
-        <v>13900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>12700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3006,51 +3467,63 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="E102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>55900</v>
+        <v>59600</v>
       </c>
       <c r="E8" s="3">
-        <v>69500</v>
+        <v>74100</v>
       </c>
       <c r="F8" s="3">
-        <v>81600</v>
+        <v>87000</v>
       </c>
       <c r="G8" s="3">
-        <v>59800</v>
+        <v>63700</v>
       </c>
       <c r="H8" s="3">
-        <v>93700</v>
+        <v>99900</v>
       </c>
       <c r="I8" s="3">
-        <v>86200</v>
+        <v>91900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>34900</v>
+        <v>37200</v>
       </c>
       <c r="E9" s="3">
-        <v>46200</v>
+        <v>49300</v>
       </c>
       <c r="F9" s="3">
-        <v>54300</v>
+        <v>57900</v>
       </c>
       <c r="G9" s="3">
-        <v>35500</v>
+        <v>37800</v>
       </c>
       <c r="H9" s="3">
-        <v>51800</v>
+        <v>55300</v>
       </c>
       <c r="I9" s="3">
-        <v>49100</v>
+        <v>52300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>21000</v>
+        <v>22400</v>
       </c>
       <c r="E10" s="3">
-        <v>23200</v>
+        <v>24800</v>
       </c>
       <c r="F10" s="3">
-        <v>27300</v>
+        <v>29100</v>
       </c>
       <c r="G10" s="3">
-        <v>24300</v>
+        <v>25900</v>
       </c>
       <c r="H10" s="3">
-        <v>41900</v>
+        <v>44700</v>
       </c>
       <c r="I10" s="3">
-        <v>37100</v>
+        <v>39600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,22 +898,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14600</v>
+        <v>15600</v>
       </c>
       <c r="E14" s="3">
-        <v>11300</v>
+        <v>12100</v>
       </c>
       <c r="F14" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="G14" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="I14" s="3">
-        <v>7600</v>
+        <v>8100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>89100</v>
+        <v>95000</v>
       </c>
       <c r="E17" s="3">
-        <v>100800</v>
+        <v>107500</v>
       </c>
       <c r="F17" s="3">
-        <v>104800</v>
+        <v>111800</v>
       </c>
       <c r="G17" s="3">
-        <v>69100</v>
+        <v>73700</v>
       </c>
       <c r="H17" s="3">
-        <v>103200</v>
+        <v>110000</v>
       </c>
       <c r="I17" s="3">
-        <v>95100</v>
+        <v>101400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-33200</v>
+        <v>-35400</v>
       </c>
       <c r="E18" s="3">
-        <v>-31300</v>
+        <v>-33400</v>
       </c>
       <c r="F18" s="3">
-        <v>-23300</v>
+        <v>-24800</v>
       </c>
       <c r="G18" s="3">
-        <v>-9400</v>
+        <v>-10000</v>
       </c>
       <c r="H18" s="3">
-        <v>-9400</v>
+        <v>-10100</v>
       </c>
       <c r="I18" s="3">
-        <v>-8900</v>
+        <v>-9500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1096,16 +1096,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-21400</v>
+        <v>-22900</v>
       </c>
       <c r="G21" s="3">
-        <v>-8200</v>
+        <v>-8800</v>
       </c>
       <c r="H21" s="3">
-        <v>-7300</v>
+        <v>-7800</v>
       </c>
       <c r="I21" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33200</v>
+        <v>-35400</v>
       </c>
       <c r="E23" s="3">
-        <v>-31300</v>
+        <v>-33400</v>
       </c>
       <c r="F23" s="3">
-        <v>-23300</v>
+        <v>-24800</v>
       </c>
       <c r="G23" s="3">
-        <v>-9400</v>
+        <v>-10000</v>
       </c>
       <c r="H23" s="3">
-        <v>-9400</v>
+        <v>-10100</v>
       </c>
       <c r="I23" s="3">
-        <v>-8900</v>
+        <v>-9500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
         <v>-800</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33700</v>
+        <v>-35900</v>
       </c>
       <c r="E26" s="3">
-        <v>-30600</v>
+        <v>-32600</v>
       </c>
       <c r="F26" s="3">
-        <v>-23300</v>
+        <v>-24900</v>
       </c>
       <c r="G26" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="H26" s="3">
-        <v>-12900</v>
+        <v>-13700</v>
       </c>
       <c r="I26" s="3">
-        <v>-8100</v>
+        <v>-8700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33700</v>
+        <v>-35900</v>
       </c>
       <c r="E27" s="3">
-        <v>-30600</v>
+        <v>-32600</v>
       </c>
       <c r="F27" s="3">
-        <v>-23300</v>
+        <v>-24900</v>
       </c>
       <c r="G27" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="H27" s="3">
-        <v>-12900</v>
+        <v>-13700</v>
       </c>
       <c r="I27" s="3">
-        <v>-8100</v>
+        <v>-8700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33700</v>
+        <v>-35900</v>
       </c>
       <c r="E33" s="3">
-        <v>-30600</v>
+        <v>-32600</v>
       </c>
       <c r="F33" s="3">
-        <v>-23300</v>
+        <v>-24900</v>
       </c>
       <c r="G33" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="H33" s="3">
-        <v>-12900</v>
+        <v>-13700</v>
       </c>
       <c r="I33" s="3">
-        <v>-8100</v>
+        <v>-8700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33700</v>
+        <v>-35900</v>
       </c>
       <c r="E35" s="3">
-        <v>-30600</v>
+        <v>-32600</v>
       </c>
       <c r="F35" s="3">
-        <v>-23300</v>
+        <v>-24900</v>
       </c>
       <c r="G35" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="H35" s="3">
-        <v>-12900</v>
+        <v>-13700</v>
       </c>
       <c r="I35" s="3">
-        <v>-8100</v>
+        <v>-8700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E41" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F41" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="G41" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="I41" s="3">
         <v>800</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E43" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="F43" s="3">
-        <v>17500</v>
+        <v>18600</v>
       </c>
       <c r="G43" s="3">
-        <v>25400</v>
+        <v>27200</v>
       </c>
       <c r="H43" s="3">
-        <v>20200</v>
+        <v>21600</v>
       </c>
       <c r="I43" s="3">
-        <v>12400</v>
+        <v>13300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14600</v>
+        <v>15600</v>
       </c>
       <c r="E44" s="3">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="F44" s="3">
-        <v>19500</v>
+        <v>20800</v>
       </c>
       <c r="G44" s="3">
-        <v>23500</v>
+        <v>25100</v>
       </c>
       <c r="H44" s="3">
-        <v>23600</v>
+        <v>25200</v>
       </c>
       <c r="I44" s="3">
-        <v>28800</v>
+        <v>30700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20700</v>
+        <v>22100</v>
       </c>
       <c r="E46" s="3">
-        <v>20700</v>
+        <v>22100</v>
       </c>
       <c r="F46" s="3">
-        <v>43600</v>
+        <v>46600</v>
       </c>
       <c r="G46" s="3">
-        <v>50600</v>
+        <v>54000</v>
       </c>
       <c r="H46" s="3">
+        <v>49500</v>
+      </c>
+      <c r="I46" s="3">
         <v>46400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>43400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16600</v>
+        <v>17800</v>
       </c>
       <c r="E48" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="G48" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H48" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="I48" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17500</v>
+        <v>18700</v>
       </c>
       <c r="E49" s="3">
-        <v>23500</v>
+        <v>25100</v>
       </c>
       <c r="F49" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="G49" s="3">
-        <v>9100</v>
+        <v>9700</v>
       </c>
       <c r="H49" s="3">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="I49" s="3">
-        <v>10800</v>
+        <v>11500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>54900</v>
+        <v>58600</v>
       </c>
       <c r="E54" s="3">
-        <v>46900</v>
+        <v>50100</v>
       </c>
       <c r="F54" s="3">
-        <v>54600</v>
+        <v>58300</v>
       </c>
       <c r="G54" s="3">
-        <v>62800</v>
+        <v>67000</v>
       </c>
       <c r="H54" s="3">
-        <v>59300</v>
+        <v>63300</v>
       </c>
       <c r="I54" s="3">
-        <v>61900</v>
+        <v>66100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G57" s="3">
         <v>13900</v>
       </c>
-      <c r="E57" s="3">
-        <v>15700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>14200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>13100</v>
-      </c>
       <c r="H57" s="3">
-        <v>12300</v>
+        <v>13200</v>
       </c>
       <c r="I57" s="3">
-        <v>17000</v>
+        <v>18200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16900</v>
+        <v>18100</v>
       </c>
       <c r="E58" s="3">
-        <v>13000</v>
+        <v>13900</v>
       </c>
       <c r="F58" s="3">
-        <v>32300</v>
+        <v>34500</v>
       </c>
       <c r="G58" s="3">
-        <v>42800</v>
+        <v>45700</v>
       </c>
       <c r="H58" s="3">
-        <v>38200</v>
+        <v>40800</v>
       </c>
       <c r="I58" s="3">
-        <v>34900</v>
+        <v>37200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="E59" s="3">
-        <v>10200</v>
+        <v>10900</v>
       </c>
       <c r="F59" s="3">
-        <v>9900</v>
+        <v>10600</v>
       </c>
       <c r="G59" s="3">
-        <v>11100</v>
+        <v>11900</v>
       </c>
       <c r="H59" s="3">
-        <v>8300</v>
+        <v>8800</v>
       </c>
       <c r="I59" s="3">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34500</v>
+        <v>36800</v>
       </c>
       <c r="E60" s="3">
-        <v>38900</v>
+        <v>41600</v>
       </c>
       <c r="F60" s="3">
-        <v>56500</v>
+        <v>60300</v>
       </c>
       <c r="G60" s="3">
-        <v>67000</v>
+        <v>71500</v>
       </c>
       <c r="H60" s="3">
-        <v>58800</v>
+        <v>62700</v>
       </c>
       <c r="I60" s="3">
-        <v>58300</v>
+        <v>62300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23200</v>
+        <v>24800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9900</v>
+        <v>10600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1400</v>
-      </c>
       <c r="H62" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58800</v>
+        <v>62800</v>
       </c>
       <c r="E66" s="3">
-        <v>40400</v>
+        <v>43100</v>
       </c>
       <c r="F66" s="3">
-        <v>58200</v>
+        <v>62100</v>
       </c>
       <c r="G66" s="3">
-        <v>68400</v>
+        <v>73000</v>
       </c>
       <c r="H66" s="3">
-        <v>70400</v>
+        <v>75100</v>
       </c>
       <c r="I66" s="3">
-        <v>60200</v>
+        <v>64200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-109400</v>
+        <v>-116800</v>
       </c>
       <c r="E72" s="3">
-        <v>-76700</v>
+        <v>-81900</v>
       </c>
       <c r="F72" s="3">
-        <v>-46200</v>
+        <v>-49300</v>
       </c>
       <c r="G72" s="3">
-        <v>-22900</v>
+        <v>-24500</v>
       </c>
       <c r="H72" s="3">
-        <v>-13000</v>
+        <v>-13900</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3900</v>
+        <v>-4200</v>
       </c>
       <c r="E76" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="F76" s="3">
-        <v>-3500</v>
+        <v>-3800</v>
       </c>
       <c r="G76" s="3">
-        <v>-5600</v>
+        <v>-6000</v>
       </c>
       <c r="H76" s="3">
-        <v>-11100</v>
+        <v>-11800</v>
       </c>
       <c r="I76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33700</v>
+        <v>-35900</v>
       </c>
       <c r="E81" s="3">
-        <v>-30600</v>
+        <v>-32600</v>
       </c>
       <c r="F81" s="3">
-        <v>-23300</v>
+        <v>-24900</v>
       </c>
       <c r="G81" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="H81" s="3">
-        <v>-12900</v>
+        <v>-13700</v>
       </c>
       <c r="I81" s="3">
-        <v>-8100</v>
+        <v>-8700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2912,16 +2912,16 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H83" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12300</v>
+        <v>-13200</v>
       </c>
       <c r="E89" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="F89" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G89" s="3">
-        <v>-8400</v>
+        <v>-8900</v>
       </c>
       <c r="H89" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="I89" s="3">
-        <v>-10700</v>
+        <v>-11400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-1200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G94" s="3">
         <v>-700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>13700</v>
+        <v>14600</v>
       </c>
       <c r="E100" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F100" s="3">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="G100" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="H100" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="I100" s="3">
-        <v>12700</v>
+        <v>13600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E102" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="F102" s="3">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="G102" s="3">
         <v>-1000</v>
       </c>
       <c r="H102" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59600</v>
+        <v>63300</v>
       </c>
       <c r="E8" s="3">
-        <v>74100</v>
+        <v>78600</v>
       </c>
       <c r="F8" s="3">
-        <v>87000</v>
+        <v>92300</v>
       </c>
       <c r="G8" s="3">
-        <v>63700</v>
+        <v>67600</v>
       </c>
       <c r="H8" s="3">
-        <v>99900</v>
+        <v>106000</v>
       </c>
       <c r="I8" s="3">
-        <v>91900</v>
+        <v>97500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37200</v>
+        <v>39500</v>
       </c>
       <c r="E9" s="3">
-        <v>49300</v>
+        <v>52300</v>
       </c>
       <c r="F9" s="3">
-        <v>57900</v>
+        <v>61400</v>
       </c>
       <c r="G9" s="3">
-        <v>37800</v>
+        <v>40100</v>
       </c>
       <c r="H9" s="3">
-        <v>55300</v>
+        <v>58700</v>
       </c>
       <c r="I9" s="3">
-        <v>52300</v>
+        <v>55500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22400</v>
+        <v>23800</v>
       </c>
       <c r="E10" s="3">
-        <v>24800</v>
+        <v>26300</v>
       </c>
       <c r="F10" s="3">
-        <v>29100</v>
+        <v>30900</v>
       </c>
       <c r="G10" s="3">
-        <v>25900</v>
+        <v>27500</v>
       </c>
       <c r="H10" s="3">
-        <v>44700</v>
+        <v>47400</v>
       </c>
       <c r="I10" s="3">
-        <v>39600</v>
+        <v>42000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,22 +898,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15600</v>
+        <v>16500</v>
       </c>
       <c r="E14" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="F14" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="G14" s="3">
         <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I14" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>95000</v>
+        <v>100800</v>
       </c>
       <c r="E17" s="3">
-        <v>107500</v>
+        <v>114100</v>
       </c>
       <c r="F17" s="3">
-        <v>111800</v>
+        <v>118600</v>
       </c>
       <c r="G17" s="3">
-        <v>73700</v>
+        <v>78200</v>
       </c>
       <c r="H17" s="3">
-        <v>110000</v>
+        <v>116700</v>
       </c>
       <c r="I17" s="3">
-        <v>101400</v>
+        <v>107600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-35400</v>
+        <v>-37600</v>
       </c>
       <c r="E18" s="3">
-        <v>-33400</v>
+        <v>-35500</v>
       </c>
       <c r="F18" s="3">
-        <v>-24800</v>
+        <v>-26400</v>
       </c>
       <c r="G18" s="3">
-        <v>-10000</v>
+        <v>-10600</v>
       </c>
       <c r="H18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-10100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-9500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1096,16 +1096,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-22900</v>
+        <v>-24200</v>
       </c>
       <c r="G21" s="3">
-        <v>-8800</v>
+        <v>-9300</v>
       </c>
       <c r="H21" s="3">
-        <v>-7800</v>
+        <v>-8200</v>
       </c>
       <c r="I21" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35400</v>
+        <v>-37600</v>
       </c>
       <c r="E23" s="3">
-        <v>-33400</v>
+        <v>-35500</v>
       </c>
       <c r="F23" s="3">
-        <v>-24800</v>
+        <v>-26400</v>
       </c>
       <c r="G23" s="3">
-        <v>-10000</v>
+        <v>-10600</v>
       </c>
       <c r="H23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-10100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-9500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1192,7 +1192,7 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="I24" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35900</v>
+        <v>-38100</v>
       </c>
       <c r="E26" s="3">
-        <v>-32600</v>
+        <v>-34600</v>
       </c>
       <c r="F26" s="3">
-        <v>-24900</v>
+        <v>-26400</v>
       </c>
       <c r="G26" s="3">
-        <v>-10600</v>
+        <v>-11200</v>
       </c>
       <c r="H26" s="3">
-        <v>-13700</v>
+        <v>-14600</v>
       </c>
       <c r="I26" s="3">
-        <v>-8700</v>
+        <v>-9200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35900</v>
+        <v>-38100</v>
       </c>
       <c r="E27" s="3">
-        <v>-32600</v>
+        <v>-34600</v>
       </c>
       <c r="F27" s="3">
-        <v>-24900</v>
+        <v>-26400</v>
       </c>
       <c r="G27" s="3">
-        <v>-10600</v>
+        <v>-11200</v>
       </c>
       <c r="H27" s="3">
-        <v>-13700</v>
+        <v>-14600</v>
       </c>
       <c r="I27" s="3">
-        <v>-8700</v>
+        <v>-9200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35900</v>
+        <v>-38100</v>
       </c>
       <c r="E33" s="3">
-        <v>-32600</v>
+        <v>-34600</v>
       </c>
       <c r="F33" s="3">
-        <v>-24900</v>
+        <v>-26400</v>
       </c>
       <c r="G33" s="3">
-        <v>-10600</v>
+        <v>-11200</v>
       </c>
       <c r="H33" s="3">
-        <v>-13700</v>
+        <v>-14600</v>
       </c>
       <c r="I33" s="3">
-        <v>-8700</v>
+        <v>-9200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35900</v>
+        <v>-38100</v>
       </c>
       <c r="E35" s="3">
-        <v>-32600</v>
+        <v>-34600</v>
       </c>
       <c r="F35" s="3">
-        <v>-24900</v>
+        <v>-26400</v>
       </c>
       <c r="G35" s="3">
-        <v>-10600</v>
+        <v>-11200</v>
       </c>
       <c r="H35" s="3">
-        <v>-13700</v>
+        <v>-14600</v>
       </c>
       <c r="I35" s="3">
-        <v>-8700</v>
+        <v>-9200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E41" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F41" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="G41" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H41" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="E43" s="3">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="F43" s="3">
-        <v>18600</v>
+        <v>19800</v>
       </c>
       <c r="G43" s="3">
-        <v>27200</v>
+        <v>28800</v>
       </c>
       <c r="H43" s="3">
-        <v>21600</v>
+        <v>22900</v>
       </c>
       <c r="I43" s="3">
-        <v>13300</v>
+        <v>14100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15600</v>
+        <v>16500</v>
       </c>
       <c r="E44" s="3">
-        <v>14000</v>
+        <v>14800</v>
       </c>
       <c r="F44" s="3">
-        <v>20800</v>
+        <v>22100</v>
       </c>
       <c r="G44" s="3">
-        <v>25100</v>
+        <v>26600</v>
       </c>
       <c r="H44" s="3">
-        <v>25200</v>
+        <v>26700</v>
       </c>
       <c r="I44" s="3">
-        <v>30700</v>
+        <v>32600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22100</v>
+        <v>23500</v>
       </c>
       <c r="E46" s="3">
-        <v>22100</v>
+        <v>23400</v>
       </c>
       <c r="F46" s="3">
-        <v>46600</v>
+        <v>49400</v>
       </c>
       <c r="G46" s="3">
-        <v>54000</v>
+        <v>57300</v>
       </c>
       <c r="H46" s="3">
-        <v>49500</v>
+        <v>52500</v>
       </c>
       <c r="I46" s="3">
-        <v>46400</v>
+        <v>49200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17800</v>
+        <v>18900</v>
       </c>
       <c r="E48" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F48" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G48" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H48" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="I48" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18700</v>
+        <v>19900</v>
       </c>
       <c r="E49" s="3">
-        <v>25100</v>
+        <v>26600</v>
       </c>
       <c r="F49" s="3">
-        <v>8600</v>
+        <v>9100</v>
       </c>
       <c r="G49" s="3">
-        <v>9700</v>
+        <v>10300</v>
       </c>
       <c r="H49" s="3">
-        <v>9600</v>
+        <v>10200</v>
       </c>
       <c r="I49" s="3">
-        <v>11500</v>
+        <v>12200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58600</v>
+        <v>62200</v>
       </c>
       <c r="E54" s="3">
-        <v>50100</v>
+        <v>53200</v>
       </c>
       <c r="F54" s="3">
-        <v>58300</v>
+        <v>61900</v>
       </c>
       <c r="G54" s="3">
-        <v>67000</v>
+        <v>71100</v>
       </c>
       <c r="H54" s="3">
-        <v>63300</v>
+        <v>67100</v>
       </c>
       <c r="I54" s="3">
-        <v>66100</v>
+        <v>70100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G57" s="3">
         <v>14800</v>
       </c>
-      <c r="E57" s="3">
-        <v>16800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>15200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>13900</v>
-      </c>
       <c r="H57" s="3">
-        <v>13200</v>
+        <v>14000</v>
       </c>
       <c r="I57" s="3">
-        <v>18200</v>
+        <v>19300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18100</v>
+        <v>19200</v>
       </c>
       <c r="E58" s="3">
-        <v>13900</v>
+        <v>14700</v>
       </c>
       <c r="F58" s="3">
-        <v>34500</v>
+        <v>36600</v>
       </c>
       <c r="G58" s="3">
-        <v>45700</v>
+        <v>48500</v>
       </c>
       <c r="H58" s="3">
-        <v>40800</v>
+        <v>43300</v>
       </c>
       <c r="I58" s="3">
-        <v>37200</v>
+        <v>39500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E59" s="3">
-        <v>10900</v>
+        <v>11500</v>
       </c>
       <c r="F59" s="3">
-        <v>10600</v>
+        <v>11300</v>
       </c>
       <c r="G59" s="3">
-        <v>11900</v>
+        <v>12600</v>
       </c>
       <c r="H59" s="3">
-        <v>8800</v>
+        <v>9400</v>
       </c>
       <c r="I59" s="3">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36800</v>
+        <v>39000</v>
       </c>
       <c r="E60" s="3">
-        <v>41600</v>
+        <v>44100</v>
       </c>
       <c r="F60" s="3">
-        <v>60300</v>
+        <v>64000</v>
       </c>
       <c r="G60" s="3">
-        <v>71500</v>
+        <v>75900</v>
       </c>
       <c r="H60" s="3">
-        <v>62700</v>
+        <v>66600</v>
       </c>
       <c r="I60" s="3">
-        <v>62300</v>
+        <v>66100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24800</v>
+        <v>26300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>10600</v>
+        <v>11200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1500</v>
-      </c>
       <c r="H62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I62" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62800</v>
+        <v>66600</v>
       </c>
       <c r="E66" s="3">
-        <v>43100</v>
+        <v>45800</v>
       </c>
       <c r="F66" s="3">
-        <v>62100</v>
+        <v>65900</v>
       </c>
       <c r="G66" s="3">
-        <v>73000</v>
+        <v>77400</v>
       </c>
       <c r="H66" s="3">
-        <v>75100</v>
+        <v>79700</v>
       </c>
       <c r="I66" s="3">
-        <v>64200</v>
+        <v>68100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-116800</v>
+        <v>-123900</v>
       </c>
       <c r="E72" s="3">
-        <v>-81900</v>
+        <v>-86800</v>
       </c>
       <c r="F72" s="3">
-        <v>-49300</v>
+        <v>-52300</v>
       </c>
       <c r="G72" s="3">
-        <v>-24500</v>
+        <v>-26000</v>
       </c>
       <c r="H72" s="3">
-        <v>-13900</v>
+        <v>-14700</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="E76" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="F76" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="G76" s="3">
-        <v>-6000</v>
+        <v>-6400</v>
       </c>
       <c r="H76" s="3">
-        <v>-11800</v>
+        <v>-12600</v>
       </c>
       <c r="I76" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35900</v>
+        <v>-38100</v>
       </c>
       <c r="E81" s="3">
-        <v>-32600</v>
+        <v>-34600</v>
       </c>
       <c r="F81" s="3">
-        <v>-24900</v>
+        <v>-26400</v>
       </c>
       <c r="G81" s="3">
-        <v>-10600</v>
+        <v>-11200</v>
       </c>
       <c r="H81" s="3">
-        <v>-13700</v>
+        <v>-14600</v>
       </c>
       <c r="I81" s="3">
-        <v>-8700</v>
+        <v>-9200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2912,16 +2912,16 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H83" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="I83" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-13200</v>
+        <v>-14000</v>
       </c>
       <c r="E89" s="3">
-        <v>-6200</v>
+        <v>-6600</v>
       </c>
       <c r="F89" s="3">
-        <v>-2700</v>
+        <v>-2900</v>
       </c>
       <c r="G89" s="3">
-        <v>-8900</v>
+        <v>-9500</v>
       </c>
       <c r="H89" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="I89" s="3">
-        <v>-11400</v>
+        <v>-12100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3155,7 +3155,7 @@
         <v>-900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F91" s="3">
         <v>-1500</v>
@@ -3164,10 +3164,10 @@
         <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3254,19 +3254,19 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G94" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3800</v>
+        <v>-4100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>14600</v>
+        <v>15500</v>
       </c>
       <c r="E100" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="3">
-        <v>9600</v>
+        <v>10200</v>
       </c>
       <c r="G100" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="H100" s="3">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="I100" s="3">
-        <v>13600</v>
+        <v>14400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E102" s="3">
-        <v>-5800</v>
+        <v>-6200</v>
       </c>
       <c r="F102" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H102" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>63300</v>
+        <v>62600</v>
       </c>
       <c r="E8" s="3">
-        <v>78600</v>
+        <v>77800</v>
       </c>
       <c r="F8" s="3">
-        <v>92300</v>
+        <v>91300</v>
       </c>
       <c r="G8" s="3">
-        <v>67600</v>
+        <v>66900</v>
       </c>
       <c r="H8" s="3">
-        <v>106000</v>
+        <v>104900</v>
       </c>
       <c r="I8" s="3">
-        <v>97500</v>
+        <v>96500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="E9" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="F9" s="3">
-        <v>61400</v>
+        <v>60800</v>
       </c>
       <c r="G9" s="3">
-        <v>40100</v>
+        <v>39700</v>
       </c>
       <c r="H9" s="3">
-        <v>58700</v>
+        <v>58000</v>
       </c>
       <c r="I9" s="3">
-        <v>55500</v>
+        <v>54900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="E10" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="F10" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="G10" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="H10" s="3">
-        <v>47400</v>
+        <v>46900</v>
       </c>
       <c r="I10" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="E14" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="F14" s="3">
         <v>3600</v>
@@ -910,10 +910,10 @@
         <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I14" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100800</v>
+        <v>99800</v>
       </c>
       <c r="E17" s="3">
-        <v>114100</v>
+        <v>112900</v>
       </c>
       <c r="F17" s="3">
-        <v>118600</v>
+        <v>117400</v>
       </c>
       <c r="G17" s="3">
-        <v>78200</v>
+        <v>77400</v>
       </c>
       <c r="H17" s="3">
-        <v>116700</v>
+        <v>115500</v>
       </c>
       <c r="I17" s="3">
-        <v>107600</v>
+        <v>106500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-37600</v>
+        <v>-37200</v>
       </c>
       <c r="E18" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="F18" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-10600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-10700</v>
-      </c>
       <c r="I18" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1096,16 +1096,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-24200</v>
+        <v>-24000</v>
       </c>
       <c r="G21" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="H21" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="I21" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37600</v>
+        <v>-37200</v>
       </c>
       <c r="E23" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="F23" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-10600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-10700</v>
-      </c>
       <c r="I23" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-38100</v>
+        <v>-37700</v>
       </c>
       <c r="E26" s="3">
-        <v>-34600</v>
+        <v>-34200</v>
       </c>
       <c r="F26" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G26" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="H26" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="I26" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38100</v>
+        <v>-37700</v>
       </c>
       <c r="E27" s="3">
-        <v>-34600</v>
+        <v>-34200</v>
       </c>
       <c r="F27" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G27" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="H27" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="I27" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-38100</v>
+        <v>-37700</v>
       </c>
       <c r="E33" s="3">
-        <v>-34600</v>
+        <v>-34200</v>
       </c>
       <c r="F33" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G33" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="H33" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="I33" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-38100</v>
+        <v>-37700</v>
       </c>
       <c r="E35" s="3">
-        <v>-34600</v>
+        <v>-34200</v>
       </c>
       <c r="F35" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G35" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="H35" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="I35" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,7 +1653,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E41" s="3">
         <v>1400</v>
@@ -1662,7 +1662,7 @@
         <v>7500</v>
       </c>
       <c r="G41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="3">
         <v>2900</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E43" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F43" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="G43" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="H43" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="I43" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="E44" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="F44" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="G44" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="H44" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="I44" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="E46" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="F46" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="G46" s="3">
-        <v>57300</v>
+        <v>56700</v>
       </c>
       <c r="H46" s="3">
-        <v>52500</v>
+        <v>52000</v>
       </c>
       <c r="I46" s="3">
-        <v>49200</v>
+        <v>48700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="E48" s="3">
         <v>2600</v>
@@ -1893,10 +1893,10 @@
         <v>3300</v>
       </c>
       <c r="G48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I48" s="3">
         <v>4800</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="E49" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="F49" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G49" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H49" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="I49" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62200</v>
+        <v>61500</v>
       </c>
       <c r="E54" s="3">
-        <v>53200</v>
+        <v>52600</v>
       </c>
       <c r="F54" s="3">
-        <v>61900</v>
+        <v>61200</v>
       </c>
       <c r="G54" s="3">
-        <v>71100</v>
+        <v>70300</v>
       </c>
       <c r="H54" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="I54" s="3">
-        <v>70100</v>
+        <v>69400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="E57" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="F57" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="G57" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="H57" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="I57" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="E58" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F58" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="G58" s="3">
-        <v>48500</v>
+        <v>47900</v>
       </c>
       <c r="H58" s="3">
-        <v>43300</v>
+        <v>42800</v>
       </c>
       <c r="I58" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2214,19 +2214,19 @@
         <v>4100</v>
       </c>
       <c r="E59" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="F59" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="G59" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="H59" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I59" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="E60" s="3">
-        <v>44100</v>
+        <v>43600</v>
       </c>
       <c r="F60" s="3">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="G60" s="3">
-        <v>75900</v>
+        <v>75100</v>
       </c>
       <c r="H60" s="3">
-        <v>66600</v>
+        <v>65900</v>
       </c>
       <c r="I60" s="3">
-        <v>66100</v>
+        <v>65400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F62" s="3">
         <v>1900</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66600</v>
+        <v>65900</v>
       </c>
       <c r="E66" s="3">
-        <v>45800</v>
+        <v>45300</v>
       </c>
       <c r="F66" s="3">
-        <v>65900</v>
+        <v>65200</v>
       </c>
       <c r="G66" s="3">
-        <v>77400</v>
+        <v>76600</v>
       </c>
       <c r="H66" s="3">
-        <v>79700</v>
+        <v>78800</v>
       </c>
       <c r="I66" s="3">
-        <v>68100</v>
+        <v>67400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-123900</v>
+        <v>-122600</v>
       </c>
       <c r="E72" s="3">
-        <v>-86800</v>
+        <v>-85900</v>
       </c>
       <c r="F72" s="3">
-        <v>-52300</v>
+        <v>-51700</v>
       </c>
       <c r="G72" s="3">
-        <v>-26000</v>
+        <v>-25700</v>
       </c>
       <c r="H72" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -2757,16 +2757,16 @@
         <v>-4400</v>
       </c>
       <c r="E76" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F76" s="3">
         <v>-4000</v>
       </c>
       <c r="G76" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H76" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="I76" s="3">
         <v>2000</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-38100</v>
+        <v>-37700</v>
       </c>
       <c r="E81" s="3">
-        <v>-34600</v>
+        <v>-34200</v>
       </c>
       <c r="F81" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G81" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="H81" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="I81" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2918,7 +2918,7 @@
         <v>1300</v>
       </c>
       <c r="H83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I83" s="3">
         <v>4000</v>
@@ -3104,7 +3104,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14000</v>
+        <v>-13800</v>
       </c>
       <c r="E89" s="3">
         <v>-6600</v>
@@ -3113,13 +3113,13 @@
         <v>-2900</v>
       </c>
       <c r="G89" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="H89" s="3">
         <v>-3500</v>
       </c>
       <c r="I89" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3260,13 +3260,13 @@
         <v>-1600</v>
       </c>
       <c r="G94" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H94" s="3">
         <v>-2200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="E100" s="3">
         <v>1500</v>
       </c>
       <c r="F100" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G100" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="H100" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I100" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3500,16 +3500,16 @@
         <v>1300</v>
       </c>
       <c r="E102" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="F102" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="G102" s="3">
         <v>-1100</v>
       </c>
       <c r="H102" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I102" s="3">
         <v>-1700</v>

--- a/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>NAKD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43496</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43131</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42766</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>62600</v>
+        <v>57800</v>
       </c>
       <c r="E8" s="3">
-        <v>77800</v>
+        <v>65100</v>
       </c>
       <c r="F8" s="3">
-        <v>91300</v>
+        <v>80900</v>
       </c>
       <c r="G8" s="3">
-        <v>66900</v>
+        <v>95000</v>
       </c>
       <c r="H8" s="3">
-        <v>104900</v>
+        <v>69600</v>
       </c>
       <c r="I8" s="3">
-        <v>96500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>109100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -744,32 +747,35 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>39100</v>
+        <v>33400</v>
       </c>
       <c r="E9" s="3">
-        <v>51800</v>
+        <v>40600</v>
       </c>
       <c r="F9" s="3">
-        <v>60800</v>
+        <v>53800</v>
       </c>
       <c r="G9" s="3">
-        <v>39700</v>
+        <v>63200</v>
       </c>
       <c r="H9" s="3">
-        <v>58000</v>
+        <v>41300</v>
       </c>
       <c r="I9" s="3">
-        <v>54900</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>60400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>57100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -777,32 +783,35 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="E10" s="3">
-        <v>26000</v>
+        <v>24400</v>
       </c>
       <c r="F10" s="3">
-        <v>30500</v>
+        <v>27100</v>
       </c>
       <c r="G10" s="3">
-        <v>27200</v>
+        <v>31700</v>
       </c>
       <c r="H10" s="3">
-        <v>46900</v>
+        <v>28300</v>
       </c>
       <c r="I10" s="3">
-        <v>41600</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>48800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>43200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16300</v>
+        <v>11400</v>
       </c>
       <c r="E14" s="3">
-        <v>12700</v>
+        <v>17000</v>
       </c>
       <c r="F14" s="3">
-        <v>3600</v>
+        <v>13200</v>
       </c>
       <c r="G14" s="3">
-        <v>1100</v>
+        <v>3700</v>
       </c>
       <c r="H14" s="3">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="I14" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,31 +995,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>99800</v>
+        <v>107100</v>
       </c>
       <c r="E17" s="3">
-        <v>112900</v>
+        <v>103800</v>
       </c>
       <c r="F17" s="3">
         <v>117400</v>
       </c>
       <c r="G17" s="3">
-        <v>77400</v>
+        <v>122100</v>
       </c>
       <c r="H17" s="3">
-        <v>115500</v>
+        <v>80500</v>
       </c>
       <c r="I17" s="3">
-        <v>106500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>120100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>110700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1002,32 +1028,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-37200</v>
+        <v>-49300</v>
       </c>
       <c r="E18" s="3">
-        <v>-35100</v>
+        <v>-38700</v>
       </c>
       <c r="F18" s="3">
-        <v>-26100</v>
+        <v>-36500</v>
       </c>
       <c r="G18" s="3">
-        <v>-10500</v>
+        <v>-27100</v>
       </c>
       <c r="H18" s="3">
-        <v>-10600</v>
+        <v>-10900</v>
       </c>
       <c r="I18" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-11000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-10400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1074,8 +1107,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1083,9 +1116,12 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1095,20 +1131,20 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>-24000</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-9200</v>
+        <v>-24900</v>
       </c>
       <c r="H21" s="3">
-        <v>-8100</v>
+        <v>-9600</v>
       </c>
       <c r="I21" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-8400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,32 +1188,35 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37200</v>
+        <v>-49300</v>
       </c>
       <c r="E23" s="3">
-        <v>-35100</v>
+        <v>-38700</v>
       </c>
       <c r="F23" s="3">
-        <v>-26100</v>
+        <v>-36500</v>
       </c>
       <c r="G23" s="3">
-        <v>-10500</v>
+        <v>-27100</v>
       </c>
       <c r="H23" s="3">
-        <v>-10600</v>
+        <v>-10900</v>
       </c>
       <c r="I23" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-11000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-10400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1182,42 +1224,48 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>3900</v>
-      </c>
       <c r="I24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,32 +1296,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-37700</v>
+        <v>-49400</v>
       </c>
       <c r="E26" s="3">
-        <v>-34200</v>
+        <v>-39200</v>
       </c>
       <c r="F26" s="3">
-        <v>-26100</v>
+        <v>-35600</v>
       </c>
       <c r="G26" s="3">
-        <v>-11100</v>
+        <v>-27200</v>
       </c>
       <c r="H26" s="3">
-        <v>-14400</v>
+        <v>-11500</v>
       </c>
       <c r="I26" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-9500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1281,32 +1332,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37700</v>
+        <v>-49400</v>
       </c>
       <c r="E27" s="3">
-        <v>-34200</v>
+        <v>-39200</v>
       </c>
       <c r="F27" s="3">
-        <v>-26100</v>
+        <v>-35600</v>
       </c>
       <c r="G27" s="3">
-        <v>-11100</v>
+        <v>-27200</v>
       </c>
       <c r="H27" s="3">
-        <v>-14400</v>
+        <v>-11500</v>
       </c>
       <c r="I27" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1470,8 +1539,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1479,32 +1548,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-37700</v>
+        <v>-49400</v>
       </c>
       <c r="E33" s="3">
-        <v>-34200</v>
+        <v>-39200</v>
       </c>
       <c r="F33" s="3">
-        <v>-26100</v>
+        <v>-35600</v>
       </c>
       <c r="G33" s="3">
-        <v>-11100</v>
+        <v>-27200</v>
       </c>
       <c r="H33" s="3">
-        <v>-14400</v>
+        <v>-11500</v>
       </c>
       <c r="I33" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-9500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,32 +1620,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-37700</v>
+        <v>-49400</v>
       </c>
       <c r="E35" s="3">
-        <v>-34200</v>
+        <v>-39200</v>
       </c>
       <c r="F35" s="3">
-        <v>-26100</v>
+        <v>-35600</v>
       </c>
       <c r="G35" s="3">
-        <v>-11100</v>
+        <v>-27200</v>
       </c>
       <c r="H35" s="3">
-        <v>-14400</v>
+        <v>-11500</v>
       </c>
       <c r="I35" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-9500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1578,47 +1656,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43496</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43131</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42766</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2600</v>
+        <v>65700</v>
       </c>
       <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
-        <v>7500</v>
-      </c>
       <c r="G41" s="3">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="H41" s="3">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="I41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,32 +1801,35 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4200</v>
+        <v>5900</v>
       </c>
       <c r="E43" s="3">
-        <v>7100</v>
+        <v>4400</v>
       </c>
       <c r="F43" s="3">
-        <v>19600</v>
+        <v>7400</v>
       </c>
       <c r="G43" s="3">
-        <v>28500</v>
+        <v>20300</v>
       </c>
       <c r="H43" s="3">
-        <v>22700</v>
+        <v>29700</v>
       </c>
       <c r="I43" s="3">
-        <v>13900</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>23600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>14500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1745,32 +1837,35 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16400</v>
+        <v>12000</v>
       </c>
       <c r="E44" s="3">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="F44" s="3">
-        <v>21900</v>
+        <v>15300</v>
       </c>
       <c r="G44" s="3">
-        <v>26300</v>
+        <v>22700</v>
       </c>
       <c r="H44" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="I44" s="3">
-        <v>32300</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>27500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>33600</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1778,9 +1873,12 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1790,8 +1888,8 @@
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1800,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1700</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1811,32 +1909,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23200</v>
+        <v>83600</v>
       </c>
       <c r="E46" s="3">
-        <v>23200</v>
+        <v>24100</v>
       </c>
       <c r="F46" s="3">
-        <v>48900</v>
+        <v>24100</v>
       </c>
       <c r="G46" s="3">
-        <v>56700</v>
+        <v>50800</v>
       </c>
       <c r="H46" s="3">
-        <v>52000</v>
+        <v>59000</v>
       </c>
       <c r="I46" s="3">
-        <v>48700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>54100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>50600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1844,9 +1945,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,32 +1981,35 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18700</v>
+        <v>15400</v>
       </c>
       <c r="E48" s="3">
-        <v>2600</v>
+        <v>19400</v>
       </c>
       <c r="F48" s="3">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="G48" s="3">
         <v>3400</v>
       </c>
       <c r="H48" s="3">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="I48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1910,32 +2017,35 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19700</v>
+        <v>16500</v>
       </c>
       <c r="E49" s="3">
-        <v>26300</v>
+        <v>20400</v>
       </c>
       <c r="F49" s="3">
-        <v>9000</v>
+        <v>27400</v>
       </c>
       <c r="G49" s="3">
-        <v>10200</v>
+        <v>9400</v>
       </c>
       <c r="H49" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="I49" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,21 +2125,24 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -2031,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,32 +2197,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61500</v>
+        <v>115500</v>
       </c>
       <c r="E54" s="3">
-        <v>52600</v>
+        <v>64000</v>
       </c>
       <c r="F54" s="3">
-        <v>61200</v>
+        <v>54700</v>
       </c>
       <c r="G54" s="3">
-        <v>70300</v>
+        <v>63700</v>
       </c>
       <c r="H54" s="3">
-        <v>66400</v>
+        <v>73200</v>
       </c>
       <c r="I54" s="3">
-        <v>69400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>69100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>72200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,31 +2268,32 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="E57" s="3">
-        <v>17600</v>
+        <v>16200</v>
       </c>
       <c r="F57" s="3">
-        <v>15900</v>
+        <v>18400</v>
       </c>
       <c r="G57" s="3">
-        <v>14600</v>
+        <v>16600</v>
       </c>
       <c r="H57" s="3">
-        <v>13800</v>
+        <v>15200</v>
       </c>
       <c r="I57" s="3">
-        <v>19100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>14400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>19800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2171,32 +2301,35 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="E58" s="3">
-        <v>14600</v>
+        <v>19700</v>
       </c>
       <c r="F58" s="3">
-        <v>36200</v>
+        <v>15200</v>
       </c>
       <c r="G58" s="3">
-        <v>47900</v>
+        <v>37700</v>
       </c>
       <c r="H58" s="3">
-        <v>42800</v>
+        <v>49900</v>
       </c>
       <c r="I58" s="3">
-        <v>39100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>44500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>40700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2204,32 +2337,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4100</v>
+        <v>6500</v>
       </c>
       <c r="E59" s="3">
-        <v>11400</v>
+        <v>4200</v>
       </c>
       <c r="F59" s="3">
-        <v>11100</v>
+        <v>11900</v>
       </c>
       <c r="G59" s="3">
-        <v>12500</v>
+        <v>11600</v>
       </c>
       <c r="H59" s="3">
-        <v>9300</v>
+        <v>13000</v>
       </c>
       <c r="I59" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>9600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2237,32 +2373,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38600</v>
+        <v>37500</v>
       </c>
       <c r="E60" s="3">
-        <v>43600</v>
+        <v>40200</v>
       </c>
       <c r="F60" s="3">
-        <v>63300</v>
+        <v>45400</v>
       </c>
       <c r="G60" s="3">
-        <v>75100</v>
+        <v>65800</v>
       </c>
       <c r="H60" s="3">
-        <v>65900</v>
+        <v>78100</v>
       </c>
       <c r="I60" s="3">
-        <v>65400</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>68500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>68000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2270,17 +2409,20 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26000</v>
+        <v>12700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2289,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2303,32 +2445,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>2100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,32 +2589,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65900</v>
+        <v>51100</v>
       </c>
       <c r="E66" s="3">
-        <v>45300</v>
+        <v>68500</v>
       </c>
       <c r="F66" s="3">
-        <v>65200</v>
+        <v>47100</v>
       </c>
       <c r="G66" s="3">
-        <v>76600</v>
+        <v>67800</v>
       </c>
       <c r="H66" s="3">
-        <v>78800</v>
+        <v>79700</v>
       </c>
       <c r="I66" s="3">
-        <v>67400</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>82000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>70100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-122600</v>
+        <v>-180200</v>
       </c>
       <c r="E72" s="3">
-        <v>-85900</v>
+        <v>-127500</v>
       </c>
       <c r="F72" s="3">
-        <v>-51700</v>
+        <v>-89400</v>
       </c>
       <c r="G72" s="3">
-        <v>-25700</v>
+        <v>-53800</v>
       </c>
       <c r="H72" s="3">
-        <v>-14600</v>
+        <v>-26700</v>
       </c>
       <c r="I72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,32 +2929,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4400</v>
+        <v>64500</v>
       </c>
       <c r="E76" s="3">
-        <v>7300</v>
+        <v>-4500</v>
       </c>
       <c r="F76" s="3">
-        <v>-4000</v>
+        <v>7600</v>
       </c>
       <c r="G76" s="3">
-        <v>-6300</v>
+        <v>-4100</v>
       </c>
       <c r="H76" s="3">
-        <v>-12400</v>
+        <v>-6500</v>
       </c>
       <c r="I76" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-12900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,70 +3001,76 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43496</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43131</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42766</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-37700</v>
+        <v>-49400</v>
       </c>
       <c r="E81" s="3">
-        <v>-34200</v>
+        <v>-39200</v>
       </c>
       <c r="F81" s="3">
-        <v>-26100</v>
+        <v>-35600</v>
       </c>
       <c r="G81" s="3">
-        <v>-11100</v>
+        <v>-27200</v>
       </c>
       <c r="H81" s="3">
-        <v>-14400</v>
+        <v>-11500</v>
       </c>
       <c r="I81" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-9500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,8 +3097,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2911,20 +3109,20 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>2100</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
-        <v>2400</v>
-      </c>
       <c r="I83" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,32 +3310,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-13800</v>
+        <v>-8000</v>
       </c>
       <c r="E89" s="3">
-        <v>-6600</v>
+        <v>-14400</v>
       </c>
       <c r="F89" s="3">
-        <v>-2900</v>
+        <v>-6800</v>
       </c>
       <c r="G89" s="3">
-        <v>-9400</v>
+        <v>-3000</v>
       </c>
       <c r="H89" s="3">
-        <v>-3500</v>
+        <v>-9800</v>
       </c>
       <c r="I89" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-3600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-12400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,31 +3365,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1800</v>
-      </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1900</v>
       </c>
       <c r="G91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I91" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-2000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,32 +3470,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G94" s="3">
-        <v>-700</v>
+        <v>-1700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2200</v>
+        <v>-800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-2300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,32 +3666,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15400</v>
+        <v>73200</v>
       </c>
       <c r="E100" s="3">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="F100" s="3">
-        <v>10100</v>
+        <v>1600</v>
       </c>
       <c r="G100" s="3">
-        <v>9100</v>
+        <v>10500</v>
       </c>
       <c r="H100" s="3">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="I100" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>14800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3457,73 +3702,82 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F102" s="3">
-        <v>5600</v>
+        <v>-6300</v>
       </c>
       <c r="G102" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
-        <v>2000</v>
-      </c>
       <c r="I102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>57800</v>
+        <v>54800</v>
       </c>
       <c r="E8" s="3">
-        <v>65100</v>
+        <v>61600</v>
       </c>
       <c r="F8" s="3">
-        <v>80900</v>
+        <v>76600</v>
       </c>
       <c r="G8" s="3">
+        <v>89900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>65900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>103300</v>
+      </c>
+      <c r="J8" s="3">
         <v>95000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>69600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>109100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>33400</v>
+        <v>31600</v>
       </c>
       <c r="E9" s="3">
-        <v>40600</v>
+        <v>38500</v>
       </c>
       <c r="F9" s="3">
-        <v>53800</v>
+        <v>51000</v>
       </c>
       <c r="G9" s="3">
-        <v>63200</v>
+        <v>59800</v>
       </c>
       <c r="H9" s="3">
-        <v>41300</v>
+        <v>39100</v>
       </c>
       <c r="I9" s="3">
-        <v>60400</v>
+        <v>57100</v>
       </c>
       <c r="J9" s="3">
-        <v>57100</v>
+        <v>54100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24500</v>
+        <v>23200</v>
       </c>
       <c r="E10" s="3">
-        <v>24400</v>
+        <v>23100</v>
       </c>
       <c r="F10" s="3">
-        <v>27100</v>
+        <v>25600</v>
       </c>
       <c r="G10" s="3">
-        <v>31700</v>
+        <v>30100</v>
       </c>
       <c r="H10" s="3">
-        <v>28300</v>
+        <v>26800</v>
       </c>
       <c r="I10" s="3">
-        <v>48800</v>
+        <v>46200</v>
       </c>
       <c r="J10" s="3">
-        <v>43200</v>
+        <v>40900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="E14" s="3">
-        <v>17000</v>
+        <v>16100</v>
       </c>
       <c r="F14" s="3">
-        <v>13200</v>
+        <v>12500</v>
       </c>
       <c r="G14" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I14" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="J14" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>107100</v>
+        <v>101400</v>
       </c>
       <c r="E17" s="3">
-        <v>103800</v>
+        <v>98200</v>
       </c>
       <c r="F17" s="3">
-        <v>117400</v>
+        <v>111100</v>
       </c>
       <c r="G17" s="3">
-        <v>122100</v>
+        <v>115600</v>
       </c>
       <c r="H17" s="3">
-        <v>80500</v>
+        <v>76200</v>
       </c>
       <c r="I17" s="3">
-        <v>120100</v>
+        <v>113700</v>
       </c>
       <c r="J17" s="3">
-        <v>110700</v>
+        <v>104800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49300</v>
+        <v>-46700</v>
       </c>
       <c r="E18" s="3">
-        <v>-38700</v>
+        <v>-36600</v>
       </c>
       <c r="F18" s="3">
-        <v>-36500</v>
+        <v>-34500</v>
       </c>
       <c r="G18" s="3">
-        <v>-27100</v>
+        <v>-25700</v>
       </c>
       <c r="H18" s="3">
-        <v>-10900</v>
+        <v>-10300</v>
       </c>
       <c r="I18" s="3">
-        <v>-11000</v>
+        <v>-10400</v>
       </c>
       <c r="J18" s="3">
-        <v>-10400</v>
+        <v>-9800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1135,16 +1135,16 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-24900</v>
+        <v>-23600</v>
       </c>
       <c r="H21" s="3">
-        <v>-9600</v>
+        <v>-9100</v>
       </c>
       <c r="I21" s="3">
-        <v>-8400</v>
+        <v>-8000</v>
       </c>
       <c r="J21" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-49300</v>
+        <v>-46700</v>
       </c>
       <c r="E23" s="3">
-        <v>-38700</v>
+        <v>-36600</v>
       </c>
       <c r="F23" s="3">
-        <v>-36500</v>
+        <v>-34500</v>
       </c>
       <c r="G23" s="3">
-        <v>-27100</v>
+        <v>-25700</v>
       </c>
       <c r="H23" s="3">
-        <v>-10900</v>
+        <v>-10300</v>
       </c>
       <c r="I23" s="3">
-        <v>-11000</v>
+        <v>-10400</v>
       </c>
       <c r="J23" s="3">
-        <v>-10400</v>
+        <v>-9800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F24" s="3">
         <v>-900</v>
@@ -1249,7 +1249,7 @@
         <v>600</v>
       </c>
       <c r="I24" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="J24" s="3">
         <v>-900</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-49400</v>
+        <v>-46800</v>
       </c>
       <c r="E26" s="3">
-        <v>-39200</v>
+        <v>-37200</v>
       </c>
       <c r="F26" s="3">
-        <v>-35600</v>
+        <v>-33700</v>
       </c>
       <c r="G26" s="3">
-        <v>-27200</v>
+        <v>-25700</v>
       </c>
       <c r="H26" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I26" s="3">
-        <v>-15000</v>
+        <v>-14200</v>
       </c>
       <c r="J26" s="3">
-        <v>-9500</v>
+        <v>-9000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-49400</v>
+        <v>-46800</v>
       </c>
       <c r="E27" s="3">
-        <v>-39200</v>
+        <v>-37200</v>
       </c>
       <c r="F27" s="3">
-        <v>-35600</v>
+        <v>-33700</v>
       </c>
       <c r="G27" s="3">
-        <v>-27200</v>
+        <v>-25700</v>
       </c>
       <c r="H27" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I27" s="3">
-        <v>-15000</v>
+        <v>-14200</v>
       </c>
       <c r="J27" s="3">
-        <v>-9500</v>
+        <v>-9000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-49400</v>
+        <v>-46800</v>
       </c>
       <c r="E33" s="3">
-        <v>-39200</v>
+        <v>-37200</v>
       </c>
       <c r="F33" s="3">
-        <v>-35600</v>
+        <v>-33700</v>
       </c>
       <c r="G33" s="3">
-        <v>-27200</v>
+        <v>-25700</v>
       </c>
       <c r="H33" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I33" s="3">
-        <v>-15000</v>
+        <v>-14200</v>
       </c>
       <c r="J33" s="3">
-        <v>-9500</v>
+        <v>-9000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-49400</v>
+        <v>-46800</v>
       </c>
       <c r="E35" s="3">
-        <v>-39200</v>
+        <v>-37200</v>
       </c>
       <c r="F35" s="3">
-        <v>-35600</v>
+        <v>-33700</v>
       </c>
       <c r="G35" s="3">
-        <v>-27200</v>
+        <v>-25700</v>
       </c>
       <c r="H35" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I35" s="3">
-        <v>-15000</v>
+        <v>-14200</v>
       </c>
       <c r="J35" s="3">
-        <v>-9500</v>
+        <v>-9000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65700</v>
+        <v>62200</v>
       </c>
       <c r="E41" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F41" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G41" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="H41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I41" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="E43" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="F43" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="G43" s="3">
-        <v>20300</v>
+        <v>19300</v>
       </c>
       <c r="H43" s="3">
-        <v>29700</v>
+        <v>28100</v>
       </c>
       <c r="I43" s="3">
-        <v>23600</v>
+        <v>22300</v>
       </c>
       <c r="J43" s="3">
-        <v>14500</v>
+        <v>13700</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="E44" s="3">
-        <v>17000</v>
+        <v>16100</v>
       </c>
       <c r="F44" s="3">
-        <v>15300</v>
+        <v>14500</v>
       </c>
       <c r="G44" s="3">
-        <v>22700</v>
+        <v>21500</v>
       </c>
       <c r="H44" s="3">
-        <v>27400</v>
+        <v>25900</v>
       </c>
       <c r="I44" s="3">
-        <v>27500</v>
+        <v>26000</v>
       </c>
       <c r="J44" s="3">
-        <v>33600</v>
+        <v>31800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>83600</v>
+        <v>79100</v>
       </c>
       <c r="E46" s="3">
-        <v>24100</v>
+        <v>22800</v>
       </c>
       <c r="F46" s="3">
-        <v>24100</v>
+        <v>22800</v>
       </c>
       <c r="G46" s="3">
-        <v>50800</v>
+        <v>48100</v>
       </c>
       <c r="H46" s="3">
-        <v>59000</v>
+        <v>55800</v>
       </c>
       <c r="I46" s="3">
-        <v>54100</v>
+        <v>51200</v>
       </c>
       <c r="J46" s="3">
-        <v>50600</v>
+        <v>47900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15400</v>
+        <v>14600</v>
       </c>
       <c r="E48" s="3">
-        <v>19400</v>
+        <v>18400</v>
       </c>
       <c r="F48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
-        <v>3600</v>
-      </c>
       <c r="I48" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="J48" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16500</v>
+        <v>15600</v>
       </c>
       <c r="E49" s="3">
-        <v>20400</v>
+        <v>19400</v>
       </c>
       <c r="F49" s="3">
-        <v>27400</v>
+        <v>25900</v>
       </c>
       <c r="G49" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="H49" s="3">
-        <v>10600</v>
+        <v>10000</v>
       </c>
       <c r="I49" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="J49" s="3">
-        <v>12600</v>
+        <v>11900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115500</v>
+        <v>109400</v>
       </c>
       <c r="E54" s="3">
-        <v>64000</v>
+        <v>60600</v>
       </c>
       <c r="F54" s="3">
-        <v>54700</v>
+        <v>51800</v>
       </c>
       <c r="G54" s="3">
-        <v>63700</v>
+        <v>60300</v>
       </c>
       <c r="H54" s="3">
-        <v>73200</v>
+        <v>69300</v>
       </c>
       <c r="I54" s="3">
-        <v>69100</v>
+        <v>65400</v>
       </c>
       <c r="J54" s="3">
-        <v>72200</v>
+        <v>68300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15500</v>
+        <v>14700</v>
       </c>
       <c r="E57" s="3">
-        <v>16200</v>
+        <v>15300</v>
       </c>
       <c r="F57" s="3">
-        <v>18400</v>
+        <v>17400</v>
       </c>
       <c r="G57" s="3">
-        <v>16600</v>
+        <v>15700</v>
       </c>
       <c r="H57" s="3">
-        <v>15200</v>
+        <v>14400</v>
       </c>
       <c r="I57" s="3">
-        <v>14400</v>
+        <v>13600</v>
       </c>
       <c r="J57" s="3">
-        <v>19800</v>
+        <v>18800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15500</v>
+        <v>14700</v>
       </c>
       <c r="E58" s="3">
-        <v>19700</v>
+        <v>18700</v>
       </c>
       <c r="F58" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="G58" s="3">
-        <v>37700</v>
+        <v>35700</v>
       </c>
       <c r="H58" s="3">
-        <v>49900</v>
+        <v>47200</v>
       </c>
       <c r="I58" s="3">
-        <v>44500</v>
+        <v>42100</v>
       </c>
       <c r="J58" s="3">
-        <v>40700</v>
+        <v>38500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="E59" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="F59" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="G59" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="H59" s="3">
-        <v>13000</v>
+        <v>12300</v>
       </c>
       <c r="I59" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="J59" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37500</v>
+        <v>35500</v>
       </c>
       <c r="E60" s="3">
-        <v>40200</v>
+        <v>38000</v>
       </c>
       <c r="F60" s="3">
-        <v>45400</v>
+        <v>43000</v>
       </c>
       <c r="G60" s="3">
-        <v>65800</v>
+        <v>62300</v>
       </c>
       <c r="H60" s="3">
-        <v>78100</v>
+        <v>73900</v>
       </c>
       <c r="I60" s="3">
-        <v>68500</v>
+        <v>64900</v>
       </c>
       <c r="J60" s="3">
-        <v>68000</v>
+        <v>64400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12700</v>
+        <v>12000</v>
       </c>
       <c r="E61" s="3">
-        <v>27000</v>
+        <v>25600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J62" s="3">
         <v>2000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51100</v>
+        <v>48400</v>
       </c>
       <c r="E66" s="3">
-        <v>68500</v>
+        <v>64900</v>
       </c>
       <c r="F66" s="3">
-        <v>47100</v>
+        <v>44600</v>
       </c>
       <c r="G66" s="3">
-        <v>67800</v>
+        <v>64200</v>
       </c>
       <c r="H66" s="3">
-        <v>79700</v>
+        <v>75500</v>
       </c>
       <c r="I66" s="3">
-        <v>82000</v>
+        <v>77600</v>
       </c>
       <c r="J66" s="3">
-        <v>70100</v>
+        <v>66400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-180200</v>
+        <v>-170600</v>
       </c>
       <c r="E72" s="3">
-        <v>-127500</v>
+        <v>-120700</v>
       </c>
       <c r="F72" s="3">
-        <v>-89400</v>
+        <v>-84600</v>
       </c>
       <c r="G72" s="3">
-        <v>-53800</v>
+        <v>-50900</v>
       </c>
       <c r="H72" s="3">
-        <v>-26700</v>
+        <v>-25300</v>
       </c>
       <c r="I72" s="3">
-        <v>-15200</v>
+        <v>-14400</v>
       </c>
       <c r="J72" s="3">
         <v>-200</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64500</v>
+        <v>61000</v>
       </c>
       <c r="E76" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="F76" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="G76" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="H76" s="3">
-        <v>-6500</v>
+        <v>-6200</v>
       </c>
       <c r="I76" s="3">
-        <v>-12900</v>
+        <v>-12200</v>
       </c>
       <c r="J76" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-49400</v>
+        <v>-46800</v>
       </c>
       <c r="E81" s="3">
-        <v>-39200</v>
+        <v>-37200</v>
       </c>
       <c r="F81" s="3">
-        <v>-35600</v>
+        <v>-33700</v>
       </c>
       <c r="G81" s="3">
-        <v>-27200</v>
+        <v>-25700</v>
       </c>
       <c r="H81" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I81" s="3">
-        <v>-15000</v>
+        <v>-14200</v>
       </c>
       <c r="J81" s="3">
-        <v>-9500</v>
+        <v>-9000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3113,16 +3113,16 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H83" s="3">
         <v>1300</v>
       </c>
       <c r="I83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J83" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="E89" s="3">
-        <v>-14400</v>
+        <v>-13600</v>
       </c>
       <c r="F89" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="G89" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="H89" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="I89" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="J89" s="3">
-        <v>-12400</v>
+        <v>-11800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
         <v>-900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3489,16 +3489,16 @@
         <v>-1300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H94" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J94" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>73200</v>
+        <v>69300</v>
       </c>
       <c r="E100" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="F100" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G100" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="H100" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="I100" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="J100" s="3">
-        <v>14800</v>
+        <v>14000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>63000</v>
+        <v>59600</v>
       </c>
       <c r="E102" s="3">
         <v>1300</v>
       </c>
       <c r="F102" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="G102" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="H102" s="3">
         <v>-1100</v>
       </c>
       <c r="I102" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J102" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NAKD_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>54800</v>
+        <v>54600</v>
       </c>
       <c r="E8" s="3">
-        <v>61600</v>
+        <v>61500</v>
       </c>
       <c r="F8" s="3">
-        <v>76600</v>
+        <v>76400</v>
       </c>
       <c r="G8" s="3">
-        <v>89900</v>
+        <v>89700</v>
       </c>
       <c r="H8" s="3">
-        <v>65900</v>
+        <v>65700</v>
       </c>
       <c r="I8" s="3">
-        <v>103300</v>
+        <v>103000</v>
       </c>
       <c r="J8" s="3">
-        <v>95000</v>
+        <v>94700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31600</v>
+        <v>31500</v>
       </c>
       <c r="E9" s="3">
-        <v>38500</v>
+        <v>38400</v>
       </c>
       <c r="F9" s="3">
-        <v>51000</v>
+        <v>50800</v>
       </c>
       <c r="G9" s="3">
-        <v>59800</v>
+        <v>59700</v>
       </c>
       <c r="H9" s="3">
-        <v>39100</v>
+        <v>39000</v>
       </c>
       <c r="I9" s="3">
-        <v>57100</v>
+        <v>57000</v>
       </c>
       <c r="J9" s="3">
-        <v>54100</v>
+        <v>53900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="E10" s="3">
         <v>23100</v>
       </c>
       <c r="F10" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="G10" s="3">
-        <v>30100</v>
+        <v>30000</v>
       </c>
       <c r="H10" s="3">
-        <v>26800</v>
+        <v>26700</v>
       </c>
       <c r="I10" s="3">
-        <v>46200</v>
+        <v>46000</v>
       </c>
       <c r="J10" s="3">
-        <v>40900</v>
+        <v>40800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -920,7 +920,7 @@
         <v>10800</v>
       </c>
       <c r="E14" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="3">
         <v>12500</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>101400</v>
+        <v>101200</v>
       </c>
       <c r="E17" s="3">
-        <v>98200</v>
+        <v>98000</v>
       </c>
       <c r="F17" s="3">
-        <v>111100</v>
+        <v>110800</v>
       </c>
       <c r="G17" s="3">
-        <v>115600</v>
+        <v>115300</v>
       </c>
       <c r="H17" s="3">
-        <v>76200</v>
+        <v>76000</v>
       </c>
       <c r="I17" s="3">
-        <v>113700</v>
+        <v>113400</v>
       </c>
       <c r="J17" s="3">
-        <v>104800</v>
+        <v>104600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,16 +1038,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-46700</v>
+        <v>-46500</v>
       </c>
       <c r="E18" s="3">
-        <v>-36600</v>
+        <v>-36500</v>
       </c>
       <c r="F18" s="3">
         <v>-34500</v>
       </c>
       <c r="G18" s="3">
-        <v>-25700</v>
+        <v>-25600</v>
       </c>
       <c r="H18" s="3">
         <v>-10300</v>
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-23600</v>
+        <v>-23500</v>
       </c>
       <c r="H21" s="3">
         <v>-9100</v>
@@ -1198,16 +1198,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-46700</v>
+        <v>-46500</v>
       </c>
       <c r="E23" s="3">
-        <v>-36600</v>
+        <v>-36500</v>
       </c>
       <c r="F23" s="3">
         <v>-34500</v>
       </c>
       <c r="G23" s="3">
-        <v>-25700</v>
+        <v>-25600</v>
       </c>
       <c r="H23" s="3">
         <v>-10300</v>
@@ -1306,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46800</v>
+        <v>-46600</v>
       </c>
       <c r="E26" s="3">
-        <v>-37200</v>
+        <v>-37100</v>
       </c>
       <c r="F26" s="3">
-        <v>-33700</v>
+        <v>-33600</v>
       </c>
       <c r="G26" s="3">
         <v>-25700</v>
@@ -1324,7 +1324,7 @@
         <v>-14200</v>
       </c>
       <c r="J26" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46800</v>
+        <v>-46600</v>
       </c>
       <c r="E27" s="3">
-        <v>-37200</v>
+        <v>-37100</v>
       </c>
       <c r="F27" s="3">
-        <v>-33700</v>
+        <v>-33600</v>
       </c>
       <c r="G27" s="3">
         <v>-25700</v>
@@ -1360,7 +1360,7 @@
         <v>-14200</v>
       </c>
       <c r="J27" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1558,13 +1558,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46800</v>
+        <v>-46600</v>
       </c>
       <c r="E33" s="3">
-        <v>-37200</v>
+        <v>-37100</v>
       </c>
       <c r="F33" s="3">
-        <v>-33700</v>
+        <v>-33600</v>
       </c>
       <c r="G33" s="3">
         <v>-25700</v>
@@ -1576,7 +1576,7 @@
         <v>-14200</v>
       </c>
       <c r="J33" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46800</v>
+        <v>-46600</v>
       </c>
       <c r="E35" s="3">
-        <v>-37200</v>
+        <v>-37100</v>
       </c>
       <c r="F35" s="3">
-        <v>-33700</v>
+        <v>-33600</v>
       </c>
       <c r="G35" s="3">
         <v>-25700</v>
@@ -1648,7 +1648,7 @@
         <v>-14200</v>
       </c>
       <c r="J35" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,7 +1739,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="E41" s="3">
         <v>2600</v>
@@ -1820,10 +1820,10 @@
         <v>7000</v>
       </c>
       <c r="G43" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="H43" s="3">
-        <v>28100</v>
+        <v>28000</v>
       </c>
       <c r="I43" s="3">
         <v>22300</v>
@@ -1847,13 +1847,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="E44" s="3">
         <v>16100</v>
       </c>
       <c r="F44" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="G44" s="3">
         <v>21500</v>
@@ -1862,10 +1862,10 @@
         <v>25900</v>
       </c>
       <c r="I44" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="J44" s="3">
-        <v>31800</v>
+        <v>31700</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1919,7 +1919,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79100</v>
+        <v>78900</v>
       </c>
       <c r="E46" s="3">
         <v>22800</v>
@@ -1928,16 +1928,16 @@
         <v>22800</v>
       </c>
       <c r="G46" s="3">
-        <v>48100</v>
+        <v>48000</v>
       </c>
       <c r="H46" s="3">
-        <v>55800</v>
+        <v>55700</v>
       </c>
       <c r="I46" s="3">
-        <v>51200</v>
+        <v>51000</v>
       </c>
       <c r="J46" s="3">
-        <v>47900</v>
+        <v>47800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1994,7 +1994,7 @@
         <v>14600</v>
       </c>
       <c r="E48" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="F48" s="3">
         <v>2600</v>
@@ -2030,10 +2030,10 @@
         <v>15600</v>
       </c>
       <c r="E49" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="F49" s="3">
-        <v>25900</v>
+        <v>25800</v>
       </c>
       <c r="G49" s="3">
         <v>8900</v>
@@ -2042,7 +2042,7 @@
         <v>10000</v>
       </c>
       <c r="I49" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J49" s="3">
         <v>11900</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109400</v>
+        <v>109100</v>
       </c>
       <c r="E54" s="3">
-        <v>60600</v>
+        <v>60400</v>
       </c>
       <c r="F54" s="3">
-        <v>51800</v>
+        <v>51600</v>
       </c>
       <c r="G54" s="3">
-        <v>60300</v>
+        <v>60100</v>
       </c>
       <c r="H54" s="3">
-        <v>69300</v>
+        <v>69100</v>
       </c>
       <c r="I54" s="3">
-        <v>65400</v>
+        <v>65200</v>
       </c>
       <c r="J54" s="3">
-        <v>68300</v>
+        <v>68100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2281,7 +2281,7 @@
         <v>15300</v>
       </c>
       <c r="F57" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="G57" s="3">
         <v>15700</v>
@@ -2293,7 +2293,7 @@
         <v>13600</v>
       </c>
       <c r="J57" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="E58" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="F58" s="3">
         <v>14300</v>
       </c>
       <c r="G58" s="3">
-        <v>35700</v>
+        <v>35600</v>
       </c>
       <c r="H58" s="3">
-        <v>47200</v>
+        <v>47100</v>
       </c>
       <c r="I58" s="3">
-        <v>42100</v>
+        <v>42000</v>
       </c>
       <c r="J58" s="3">
-        <v>38500</v>
+        <v>38400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2356,7 +2356,7 @@
         <v>11200</v>
       </c>
       <c r="G59" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H59" s="3">
         <v>12300</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35500</v>
+        <v>35400</v>
       </c>
       <c r="E60" s="3">
-        <v>38000</v>
+        <v>37900</v>
       </c>
       <c r="F60" s="3">
-        <v>43000</v>
+        <v>42900</v>
       </c>
       <c r="G60" s="3">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="H60" s="3">
-        <v>73900</v>
+        <v>73700</v>
       </c>
       <c r="I60" s="3">
-        <v>64900</v>
+        <v>64700</v>
       </c>
       <c r="J60" s="3">
-        <v>64400</v>
+        <v>64200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2422,7 +2422,7 @@
         <v>12000</v>
       </c>
       <c r="E61" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H62" s="3">
         <v>1500</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48400</v>
+        <v>48200</v>
       </c>
       <c r="E66" s="3">
-        <v>64900</v>
+        <v>64700</v>
       </c>
       <c r="F66" s="3">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="G66" s="3">
-        <v>64200</v>
+        <v>64000</v>
       </c>
       <c r="H66" s="3">
-        <v>75500</v>
+        <v>75300</v>
       </c>
       <c r="I66" s="3">
-        <v>77600</v>
+        <v>77400</v>
       </c>
       <c r="J66" s="3">
-        <v>66400</v>
+        <v>66200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-170600</v>
+        <v>-170100</v>
       </c>
       <c r="E72" s="3">
-        <v>-120700</v>
+        <v>-120400</v>
       </c>
       <c r="F72" s="3">
-        <v>-84600</v>
+        <v>-84400</v>
       </c>
       <c r="G72" s="3">
-        <v>-50900</v>
+        <v>-50800</v>
       </c>
       <c r="H72" s="3">
-        <v>-25300</v>
+        <v>-25200</v>
       </c>
       <c r="I72" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="J72" s="3">
         <v>-200</v>
@@ -2939,7 +2939,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61000</v>
+        <v>60900</v>
       </c>
       <c r="E76" s="3">
         <v>-4300</v>
@@ -3052,13 +3052,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46800</v>
+        <v>-46600</v>
       </c>
       <c r="E81" s="3">
-        <v>-37200</v>
+        <v>-37100</v>
       </c>
       <c r="F81" s="3">
-        <v>-33700</v>
+        <v>-33600</v>
       </c>
       <c r="G81" s="3">
         <v>-25700</v>
@@ -3070,7 +3070,7 @@
         <v>-14200</v>
       </c>
       <c r="J81" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3326,7 +3326,7 @@
         <v>-13600</v>
       </c>
       <c r="F89" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="G89" s="3">
         <v>-2800</v>
@@ -3338,7 +3338,7 @@
         <v>-3400</v>
       </c>
       <c r="J89" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3676,7 +3676,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>69300</v>
+        <v>69100</v>
       </c>
       <c r="E100" s="3">
         <v>15100</v>
@@ -3688,7 +3688,7 @@
         <v>9900</v>
       </c>
       <c r="H100" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="I100" s="3">
         <v>7700</v>
@@ -3748,10 +3748,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>59600</v>
+        <v>59500</v>
       </c>
       <c r="E102" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F102" s="3">
         <v>-6000</v>
